--- a/documentacao/Requisitos - Bigrypto.xlsx
+++ b/documentacao/Requisitos - Bigrypto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/git/bigrypto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Documents\bigrypto\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_AD4D361C20488DEA4E38A0EC3C9E6DDA5BDEDD85" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{292D7CFF-94AF-4AC5-A64A-B55A1932DC46}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E05CF47-A343-4878-B50D-FBF8486DD75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7810" yWindow="0" windowWidth="11480" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
   <si>
     <t>Vaga Fácil</t>
   </si>
@@ -98,18 +98,6 @@
     <t>Essencial </t>
   </si>
   <si>
-    <t xml:space="preserve">Coletar informações do nosso cliente </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sessão Recuperação de senha </t>
-  </si>
-  <si>
-    <t>Recuperar uma senha esquecida</t>
-  </si>
-  <si>
-    <t>Importante</t>
-  </si>
-  <si>
     <t>Inicial</t>
   </si>
   <si>
@@ -134,42 +122,18 @@
     <t>Especificar quais são os métodos utilizados e suas métricas</t>
   </si>
   <si>
-    <t>Menu Hamburguer</t>
-  </si>
-  <si>
-    <t>Menu para mudar de sessões no site do dashboard</t>
-  </si>
-  <si>
     <t>Essencial</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>Sessão Início</t>
-  </si>
-  <si>
-    <t>Informações sobre cada sessão do site institucional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sessão Login </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizar o login do cliente através de um email e uma senha </t>
-  </si>
-  <si>
     <t xml:space="preserve">Validação e lógica Login </t>
   </si>
   <si>
     <t>Validação dos dados inseridos pelo usuário e retornar permissão.</t>
   </si>
   <si>
-    <t xml:space="preserve">Validação e lógica Recuperação de senha </t>
-  </si>
-  <si>
-    <t>Recuperar a senha através do envio de um código e a criação de uma nova senha</t>
-  </si>
-  <si>
     <t>Criação do Banco de Dados</t>
   </si>
   <si>
@@ -191,21 +155,9 @@
     <t xml:space="preserve">criar uma estrutura de informações que serve de modelo para o comportamento de um banco de dados </t>
   </si>
   <si>
-    <t>Protótipo do Site Institucional</t>
-  </si>
-  <si>
     <t>Criar o protótipo do site institucional das sessões: Início, Sobre Nós, Simulador, Cadastro</t>
   </si>
   <si>
-    <t>Adaptação das telas para diversos tamanhos</t>
-  </si>
-  <si>
-    <t>Desejável </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sessão Cadastro </t>
-  </si>
-  <si>
     <t xml:space="preserve">G </t>
   </si>
   <si>
@@ -227,15 +179,6 @@
     <t>Rodapé Site</t>
   </si>
   <si>
-    <t>Responsividade do Site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validação e lógica Simulação </t>
-  </si>
-  <si>
-    <t>Validação e lógica Gráficos</t>
-  </si>
-  <si>
     <t>Script Banco de Dados</t>
   </si>
   <si>
@@ -246,6 +189,93 @@
   </si>
   <si>
     <t>Sprint 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validação e lógica Início (simulação) </t>
+  </si>
+  <si>
+    <t>Validação e lógica Início (gráficos)</t>
+  </si>
+  <si>
+    <t>Integração do site com a API web-data-viz</t>
+  </si>
+  <si>
+    <t>Transferir o site para a API web-data-viz</t>
+  </si>
+  <si>
+    <t>Coleta de dados da API de moedas</t>
+  </si>
+  <si>
+    <t>Coletar os valores de uma determinada moeda selecionada para manipulação futura</t>
+  </si>
+  <si>
+    <t>Sessão Análises</t>
+  </si>
+  <si>
+    <t>Sessão Gráficos</t>
+  </si>
+  <si>
+    <t>Validação e lógica Sessão Análises</t>
+  </si>
+  <si>
+    <t>Validação e lógica Sessão Gráficos</t>
+  </si>
+  <si>
+    <t>Protótipo do Site</t>
+  </si>
+  <si>
+    <t>Conjunto de links para sessões do site e informações de contato</t>
+  </si>
+  <si>
+    <t>Informações sobre as moedas de interesse do dono do site e comentários de usuários</t>
+  </si>
+  <si>
+    <t>Exibição em gráficos das informações de cada moeda armazenadas no banco de dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessão Login/Cadastro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coletar e verificar informações do cliente </t>
+  </si>
+  <si>
+    <t>Desenvolver uma estrutura de repetição para exibir as análises</t>
+  </si>
+  <si>
+    <t>20/04 - 26/04</t>
+  </si>
+  <si>
+    <t>27/04 - 03/05</t>
+  </si>
+  <si>
+    <t>04/05 - 10/05</t>
+  </si>
+  <si>
+    <t>11/05 - 17/05</t>
+  </si>
+  <si>
+    <t>18/05 - 24/05</t>
+  </si>
+  <si>
+    <t>25/05 - 31/05</t>
+  </si>
+  <si>
+    <t>01/06 - 08/06</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Sprint 6</t>
+  </si>
+  <si>
+    <t>Sprint 7</t>
+  </si>
+  <si>
+    <t>Sessão Inicio</t>
+  </si>
+  <si>
+    <t>Informações gerais sobre o projeto e interações com o usuário</t>
   </si>
 </sst>
 </file>
@@ -451,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -474,6 +504,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -782,34 +815,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N26"/>
+  <dimension ref="B2:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.453125" customWidth="1"/>
+    <col min="3" max="3" width="37.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" customWidth="1"/>
+    <col min="10" max="10" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -817,14 +850,14 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -832,16 +865,16 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="2:17" ht="15" x14ac:dyDescent="0.35">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -849,7 +882,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -878,9 +911,9 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -908,16 +941,16 @@
         <v>13</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
@@ -941,20 +974,20 @@
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="6">
-        <f>SUM(F6:F26)</f>
-        <v>189</v>
+        <f>SUM(F6:F27)</f>
+        <v>191</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="2:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
@@ -978,31 +1011,31 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="2:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
         <v>3</v>
       </c>
-      <c r="G9" s="6">
-        <v>19</v>
-      </c>
-      <c r="H9" s="6">
-        <v>2</v>
+      <c r="H9" s="3">
+        <v>1</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>13</v>
@@ -1017,71 +1050,71 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="2:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="6">
         <v>5</v>
       </c>
-      <c r="G10" s="3">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="G10" s="6">
+        <v>4</v>
+      </c>
+      <c r="H10" s="6">
         <v>1</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="6">
         <f>J7</f>
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K10" s="6">
         <f>J10-K7</f>
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L10" s="6">
         <f>K10-L7</f>
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M10" s="6">
-        <f t="shared" ref="M10:N10" si="0">L10-M7</f>
-        <v>189</v>
+        <f t="shared" ref="M10" si="0">L10-M7</f>
+        <v>191</v>
       </c>
       <c r="N10" s="6">
         <f>M10-N7</f>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5</v>
+      </c>
+      <c r="G11" s="3">
         <v>28</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="6">
-        <v>5</v>
-      </c>
-      <c r="G11" s="6">
-        <v>4</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1</v>
+      <c r="H11" s="3">
+        <v>2</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="7"/>
@@ -1089,145 +1122,174 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="2:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F12" s="3">
         <v>5</v>
       </c>
-      <c r="G12" s="3">
-        <v>28</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2</v>
-      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F13" s="3">
-        <v>5</v>
-      </c>
-      <c r="G13" s="3">
-        <v>39</v>
-      </c>
-      <c r="H13" s="3">
-        <v>2</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="2:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="6">
+        <v>13</v>
+      </c>
+      <c r="G14" s="6">
+        <v>7</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="2:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="6">
-        <v>8</v>
-      </c>
-      <c r="G14" s="6">
-        <v>10</v>
-      </c>
-      <c r="H14" s="6">
-        <v>2</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="C15" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G15" s="6">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H15" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="8"/>
+      <c r="K15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="6">
-        <v>8</v>
-      </c>
-      <c r="G16" s="6">
-        <v>21</v>
-      </c>
-      <c r="H16" s="6">
-        <v>3</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1235,26 +1297,26 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="6">
-        <v>8</v>
-      </c>
-      <c r="G17" s="6">
-        <v>22</v>
-      </c>
-      <c r="H17" s="6">
+    <row r="17" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="3">
+        <v>13</v>
+      </c>
+      <c r="G17" s="3">
+        <v>25</v>
+      </c>
+      <c r="H17" s="3">
         <v>2</v>
       </c>
       <c r="I17" s="1"/>
@@ -1264,24 +1326,24 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F18" s="6">
         <v>13</v>
       </c>
       <c r="G18" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H18" s="6">
         <v>1</v>
@@ -1293,28 +1355,22 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="6">
-        <v>13</v>
-      </c>
-      <c r="G19" s="6">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6">
-        <v>1</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1322,24 +1378,24 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F20" s="3">
         <v>13</v>
       </c>
       <c r="G20" s="3">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H20" s="3">
         <v>2</v>
@@ -1351,28 +1407,18 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="6" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="6">
-        <v>13</v>
-      </c>
-      <c r="G21" s="6">
-        <v>8</v>
-      </c>
-      <c r="H21" s="6">
-        <v>1</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1380,28 +1426,18 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>63</v>
+    <row r="22" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="3">
-        <v>13</v>
-      </c>
-      <c r="G22" s="3">
-        <v>37</v>
-      </c>
-      <c r="H22" s="3">
-        <v>3</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1409,24 +1445,24 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F23" s="3">
         <v>13</v>
       </c>
       <c r="G23" s="3">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H23" s="3">
         <v>2</v>
@@ -1438,18 +1474,18 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="6" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F24" s="6">
         <v>13</v>
@@ -1467,27 +1503,27 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="3">
-        <v>13</v>
-      </c>
-      <c r="G25" s="3">
-        <v>23</v>
-      </c>
-      <c r="H25" s="3">
-        <v>2</v>
+    <row r="25" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="6">
+        <v>8</v>
+      </c>
+      <c r="G25" s="6">
+        <v>21</v>
+      </c>
+      <c r="H25" s="6">
+        <v>3</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1496,28 +1532,24 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="3">
+    <row r="26" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="6">
         <v>21</v>
       </c>
-      <c r="G26" s="3">
-        <v>30</v>
-      </c>
-      <c r="H26" s="3">
-        <v>2</v>
-      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1525,11 +1557,57 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
+    <row r="27" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="3">
+        <v>21</v>
+      </c>
+      <c r="G27" s="3">
+        <v>30</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:H3"/>
     <mergeCell ref="B4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentacao/Requisitos - Bigrypto.xlsx
+++ b/documentacao/Requisitos - Bigrypto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Documents\bigrypto\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E05CF47-A343-4878-B50D-FBF8486DD75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2994EDBD-DF9D-456A-A1C0-C5074C512900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7810" yWindow="0" windowWidth="11480" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -817,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1012,25 +1012,25 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="2:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <v>5</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="6">
         <v>3</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
         <v>1</v>
       </c>
       <c r="I9" s="1"/>
@@ -1051,25 +1051,25 @@
       </c>
     </row>
     <row r="10" spans="2:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <v>5</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="3">
         <v>4</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="3">
         <v>1</v>
       </c>
       <c r="I10" s="1"/>
@@ -1095,25 +1095,25 @@
       </c>
     </row>
     <row r="11" spans="2:17" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
         <v>5</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="6">
         <v>28</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
         <v>2</v>
       </c>
       <c r="I11" s="1"/>
@@ -1167,23 +1167,23 @@
       </c>
     </row>
     <row r="13" spans="2:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="6">
         <v>8</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="9"/>
@@ -1195,25 +1195,25 @@
       <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="2:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="3">
         <v>13</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="3">
         <v>7</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="3">
         <v>1</v>
       </c>
       <c r="I14" s="1"/>
@@ -1273,23 +1273,23 @@
       </c>
     </row>
     <row r="16" spans="2:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="3">
         <v>13</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1298,25 +1298,25 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="6">
         <v>13</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="6">
         <v>25</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="6">
         <v>2</v>
       </c>
       <c r="I17" s="1"/>
@@ -1327,25 +1327,25 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="3">
         <v>13</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="3">
         <v>8</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="3">
         <v>1</v>
       </c>
       <c r="I18" s="1"/>
@@ -1427,17 +1427,17 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1446,25 +1446,25 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="6">
         <v>13</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="6">
         <v>23</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="6">
         <v>2</v>
       </c>
       <c r="I23" s="1"/>
@@ -1475,25 +1475,25 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="3">
         <v>13</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="3">
         <v>20</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="3">
         <v>3</v>
       </c>
       <c r="I24" s="1"/>
@@ -1533,23 +1533,23 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="3">
         <v>21</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1558,25 +1558,25 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="6">
         <v>21</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="6">
         <v>30</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="6">
         <v>2</v>
       </c>
       <c r="I27" s="1"/>

--- a/documentacao/Requisitos - Bigrypto.xlsx
+++ b/documentacao/Requisitos - Bigrypto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Documents\bigrypto\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2994EDBD-DF9D-456A-A1C0-C5074C512900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C388DA8-9E9F-4CA9-9882-E52C5C70B2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
-  <si>
-    <t>Vaga Fácil</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
   <si>
     <t>Requisitos principais</t>
   </si>
@@ -59,12 +56,6 @@
     <t>Fibonacci</t>
   </si>
   <si>
-    <t>Prioridade</t>
-  </si>
-  <si>
-    <t>Sprint</t>
-  </si>
-  <si>
     <t>Conjunto de sessões localizada na parte superior do site</t>
   </si>
   <si>
@@ -80,15 +71,6 @@
     <t>Sprint 1</t>
   </si>
   <si>
-    <t>Sprint 2.2</t>
-  </si>
-  <si>
-    <t>Sprint 2.3</t>
-  </si>
-  <si>
-    <t>Sprint 2.4</t>
-  </si>
-  <si>
     <t>Nome e logo</t>
   </si>
   <si>
@@ -276,13 +258,16 @@
   </si>
   <si>
     <t>Informações gerais sobre o projeto e interações com o usuário</t>
+  </si>
+  <si>
+    <t>Bigrypto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +306,12 @@
       <name val="Bahnschrift SemiBold"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -342,7 +333,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -386,17 +377,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -410,17 +390,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -452,19 +421,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -481,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -490,10 +446,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -504,9 +460,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -520,19 +473,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -550,6 +494,1018 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plan1!$H$9:$M$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Inicial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$H$10:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4BF8-4791-A4AA-C4C833C37651}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1938495648"/>
+        <c:axId val="1938500928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1938495648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1938500928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1938500928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1938495648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>229507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>22679</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>426357</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D920E58-1825-F6B3-512A-D3986998025E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -815,10 +1771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Q29"/>
+  <dimension ref="B2:U29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -828,786 +1784,691 @@
     <col min="4" max="4" width="13.7265625" customWidth="1"/>
     <col min="5" max="5" width="12.26953125" customWidth="1"/>
     <col min="6" max="6" width="13.81640625" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" customWidth="1"/>
-    <col min="10" max="10" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:17" ht="15" x14ac:dyDescent="0.35">
-      <c r="B4" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
+    </row>
+    <row r="4" spans="2:21" ht="15" x14ac:dyDescent="0.35">
+      <c r="B4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="2:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="2:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="2:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F6" s="3">
         <v>3</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1"/>
+      <c r="H6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="3">
-        <v>2</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="4" t="s">
+      <c r="I6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F7" s="6">
         <v>3</v>
       </c>
-      <c r="G7" s="6">
-        <v>2</v>
-      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="6">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1"/>
+        <f>SUM(F6:F27)</f>
+        <v>235</v>
+      </c>
+      <c r="I7" s="6">
+        <v>42</v>
+      </c>
       <c r="J7" s="6">
-        <f>SUM(F6:F27)</f>
-        <v>191</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="2:17" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="K7" s="6">
+        <v>60</v>
+      </c>
+      <c r="L7" s="6">
+        <v>26</v>
+      </c>
+      <c r="M7" s="6">
+        <v>44</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F8" s="3">
         <v>3</v>
       </c>
-      <c r="G8" s="3">
-        <v>18</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2</v>
-      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="2:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="2:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F9" s="6">
         <v>5</v>
       </c>
-      <c r="G9" s="6">
-        <v>3</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="4" t="s">
-        <v>20</v>
+      <c r="G9" s="1"/>
+      <c r="H9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F10" s="3">
         <v>5</v>
       </c>
-      <c r="G10" s="3">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="6">
+        <f>H7</f>
+        <v>235</v>
+      </c>
+      <c r="I10" s="6">
+        <f>H10-I7</f>
+        <v>193</v>
+      </c>
       <c r="J10" s="6">
-        <f>J7</f>
-        <v>191</v>
+        <f t="shared" ref="J10:L10" si="0">I10-J7</f>
+        <v>130</v>
       </c>
       <c r="K10" s="6">
-        <f>J10-K7</f>
-        <v>191</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="L10" s="6">
-        <f>K10-L7</f>
-        <v>191</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="M10" s="6">
-        <f t="shared" ref="M10" si="0">L10-M7</f>
-        <v>191</v>
-      </c>
-      <c r="N10" s="6">
-        <f>M10-N7</f>
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <f>L10-M7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F11" s="6">
         <v>5</v>
       </c>
-      <c r="G11" s="6">
-        <v>28</v>
-      </c>
-      <c r="H11" s="6">
-        <v>2</v>
-      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="7"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="2:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="2:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F12" s="3">
         <v>5</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F13" s="6">
         <v>8</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-    </row>
-    <row r="14" spans="2:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F14" s="3">
         <v>13</v>
       </c>
-      <c r="G14" s="3">
-        <v>7</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-    </row>
-    <row r="15" spans="2:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F15" s="6">
         <v>13</v>
       </c>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="1"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="2:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F16" s="3">
         <v>13</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F17" s="6">
         <v>13</v>
       </c>
-      <c r="G17" s="6">
-        <v>25</v>
-      </c>
-      <c r="H17" s="6">
-        <v>2</v>
-      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F18" s="3">
         <v>13</v>
       </c>
-      <c r="G18" s="3">
-        <v>8</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="F19" s="6">
+        <v>13</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F20" s="3">
         <v>13</v>
       </c>
-      <c r="G20" s="3">
-        <v>13</v>
-      </c>
-      <c r="H20" s="3">
-        <v>2</v>
-      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="6">
+        <v>13</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="3">
+        <v>13</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F23" s="6">
         <v>13</v>
       </c>
-      <c r="G23" s="6">
-        <v>23</v>
-      </c>
-      <c r="H23" s="6">
-        <v>2</v>
-      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F24" s="3">
         <v>13</v>
       </c>
-      <c r="G24" s="3">
-        <v>20</v>
-      </c>
-      <c r="H24" s="3">
-        <v>3</v>
-      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25" s="6">
-        <v>8</v>
-      </c>
-      <c r="G25" s="6">
-        <v>21</v>
-      </c>
-      <c r="H25" s="6">
-        <v>3</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F26" s="3">
         <v>21</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F27" s="6">
         <v>21</v>
       </c>
-      <c r="G27" s="6">
-        <v>30</v>
-      </c>
-      <c r="H27" s="6">
-        <v>2</v>
-      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="B4:F4"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/documentacao/Requisitos - Bigrypto.xlsx
+++ b/documentacao/Requisitos - Bigrypto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Documents\bigrypto\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C388DA8-9E9F-4CA9-9882-E52C5C70B2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF617CC-B6A4-410F-BDD6-AC5A361BD3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="80">
   <si>
     <t>Requisitos principais</t>
   </si>
@@ -194,15 +194,9 @@
     <t>Sessão Análises</t>
   </si>
   <si>
-    <t>Sessão Gráficos</t>
-  </si>
-  <si>
     <t>Validação e lógica Sessão Análises</t>
   </si>
   <si>
-    <t>Validação e lógica Sessão Gráficos</t>
-  </si>
-  <si>
     <t>Protótipo do Site</t>
   </si>
   <si>
@@ -212,9 +206,6 @@
     <t>Informações sobre as moedas de interesse do dono do site e comentários de usuários</t>
   </si>
   <si>
-    <t>Exibição em gráficos das informações de cada moeda armazenadas no banco de dados</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sessão Login/Cadastro </t>
   </si>
   <si>
@@ -261,6 +252,30 @@
   </si>
   <si>
     <t>Bigrypto</t>
+  </si>
+  <si>
+    <t>Sessão Ranking</t>
+  </si>
+  <si>
+    <t>Validação e Lógica Mario</t>
+  </si>
+  <si>
+    <t>Interação do jogo do Mario</t>
+  </si>
+  <si>
+    <t>Criar uma sessão para acompanhar quem tem o melhor ponto no jogo do Mario</t>
+  </si>
+  <si>
+    <t>Validação e Lógica Ranking</t>
+  </si>
+  <si>
+    <t>Sessão Mario</t>
+  </si>
+  <si>
+    <t>Criar uma página para o jogo do Mario</t>
+  </si>
+  <si>
+    <t>Fazer a lógica para exibir os líderes do jogo do Mario</t>
   </si>
 </sst>
 </file>
@@ -627,9 +642,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Plan1!$H$9:$M$9</c:f>
+              <c:f>Plan1!$H$9:$N$9</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Inicial</c:v>
                 </c:pt>
@@ -648,31 +663,37 @@
                 <c:pt idx="5">
                   <c:v>Sprint 5</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sprint 6</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$H$10:$M$10</c:f>
+              <c:f>Plan1!$H$10:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>235</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>193</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>130</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1477,9 +1498,9 @@
       <xdr:rowOff>229507</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>22679</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>426357</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1771,25 +1792,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:U29"/>
+  <dimension ref="B2:V29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.453125" customWidth="1"/>
-    <col min="3" max="3" width="37.453125" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1802,7 +1823,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -1815,7 +1836,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:21" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:22" ht="15" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
@@ -1830,7 +1851,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:21" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1853,7 +1874,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
@@ -1886,31 +1907,34 @@
         <v>44</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="Q6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="R6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="S6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="S6" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="T6" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
@@ -1928,8 +1952,8 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="6">
-        <f>SUM(F6:F27)</f>
-        <v>235</v>
+        <f>SUM(F6:F29)</f>
+        <v>269</v>
       </c>
       <c r="I7" s="6">
         <v>42</v>
@@ -1944,36 +1968,39 @@
         <v>26</v>
       </c>
       <c r="M7" s="6">
-        <v>44</v>
-      </c>
-      <c r="O7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="6">
+        <v>57</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="S7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="T7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="U7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="V7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="S7" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="2:22" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>13</v>
@@ -1991,7 +2018,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
@@ -2024,10 +2051,13 @@
         <v>44</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
@@ -2046,30 +2076,34 @@
       <c r="G10" s="1"/>
       <c r="H10" s="6">
         <f>H7</f>
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="I10" s="6">
         <f>H10-I7</f>
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="J10" s="6">
         <f t="shared" ref="J10:L10" si="0">I10-J7</f>
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="L10" s="6">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="M10" s="6">
         <f>L10-M7</f>
+        <v>57</v>
+      </c>
+      <c r="N10" s="6">
+        <f>M10-N7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
@@ -2093,119 +2127,115 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="2:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="3" t="s">
+    <row r="12" spans="2:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="6">
         <v>5</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="2:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="6">
-        <v>8</v>
+    <row r="13" spans="2:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="2:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="3">
-        <v>13</v>
+    <row r="14" spans="2:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="6">
+        <v>8</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="2:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="6" t="s">
+    <row r="15" spans="2:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="3">
+        <v>13</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="D16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="6">
-        <v>13</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="2:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="3" t="s">
+      <c r="F16" s="6">
+        <v>13</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="D17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="3">
-        <v>13</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="F17" s="3">
         <v>13</v>
       </c>
       <c r="G17" s="1"/>
@@ -2215,20 +2245,20 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="3" t="s">
+    <row r="18" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="6">
         <v>13</v>
       </c>
       <c r="G18" s="1"/>
@@ -2238,20 +2268,20 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="6" t="s">
+    <row r="19" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="3">
         <v>13</v>
       </c>
       <c r="G19" s="1"/>
@@ -2261,20 +2291,20 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="3" t="s">
+    <row r="20" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="6">
         <v>13</v>
       </c>
       <c r="G20" s="1"/>
@@ -2284,20 +2314,20 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="6" t="s">
+    <row r="21" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="3">
         <v>13</v>
       </c>
       <c r="G21" s="1"/>
@@ -2307,20 +2337,20 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="3" t="s">
+    <row r="22" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="6">
         <v>13</v>
       </c>
       <c r="G22" s="1"/>
@@ -2330,7 +2360,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>46</v>
       </c>
@@ -2353,7 +2383,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>45</v>
       </c>
@@ -2376,7 +2406,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
         <v>24</v>
       </c>
@@ -2399,7 +2429,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>49</v>
       </c>
@@ -2422,7 +2452,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>41</v>
       </c>
@@ -2445,7 +2475,22 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="3">
+        <v>21</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2453,7 +2498,22 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="6">
+        <v>21</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
